--- a/data/teams/cleaned/formations.xlsx
+++ b/data/teams/cleaned/formations.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mesha\OneDrive\Documents\ASU\Work\Football Capstone\data\teams\cleaned\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8973CD2-005B-43A5-BC71-0AE435069F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983C2D66-6319-485F-8072-D380CF06173F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="formations" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1020,10 +1020,10 @@
         <v>11</v>
       </c>
       <c r="D33" s="2">
-        <v>35.5</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2">
-        <v>33.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1037,10 +1037,10 @@
         <v>12</v>
       </c>
       <c r="D34" s="2">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="E34" s="2">
-        <v>33.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1567,7 +1567,7 @@
         <v>25</v>
       </c>
       <c r="E65" s="2">
-        <v>28.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
